--- a/测试单-数图_170422.xlsx
+++ b/测试单-数图_170422.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="192" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="371">
   <si>
     <t>编号</t>
   </si>
@@ -630,9 +630,6 @@
   </si>
   <si>
     <t>待议，之前讨论规格时与“掌上盲图”保持一致，只在显示资源列表时才能收藏分类</t>
-  </si>
-  <si>
-    <t>这个不是说和电子书保持一致，显示8个字吗？</t>
   </si>
   <si>
     <t>增加菜单功能，与数图电子图书朗读保持一致，而不是与电子书txt朗读保持一致。</t>
@@ -1397,10 +1394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后期实现，暂遗留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1919,14 +1912,22 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照陈刚的意见，采用方案2修改了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -4408,19 +4409,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5209,22 +5210,7 @@
     <cellStyle name="常规 9 4" xfId="369"/>
     <cellStyle name="常规 9 4 2" xfId="643"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -5725,10 +5711,10 @@
   <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5932,7 +5918,7 @@
         <v>61</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>157</v>
@@ -6174,13 +6160,13 @@
         <v>48</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>157</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M10" s="62" t="s">
         <v>82</v>
@@ -6269,7 +6255,7 @@
         <v>68</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I12" s="56"/>
       <c r="J12" s="62"/>
@@ -6312,7 +6298,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62" t="s">
@@ -6342,10 +6328,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D14" s="65">
         <v>42812</v>
@@ -6357,14 +6343,14 @@
         <v>42814</v>
       </c>
       <c r="G14" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="66" t="s">
         <v>208</v>
-      </c>
-      <c r="H14" s="66" t="s">
-        <v>209</v>
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L14" s="65">
         <v>42842</v>
@@ -6374,7 +6360,7 @@
       </c>
       <c r="N14" s="62"/>
       <c r="O14" s="67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P14" s="63">
         <v>42841</v>
@@ -6453,7 +6439,7 @@
         <v>27</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
@@ -6496,7 +6482,7 @@
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K17" s="55"/>
       <c r="L17" s="65">
@@ -6534,7 +6520,7 @@
         <v>42814</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>30</v>
@@ -6560,10 +6546,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D19" s="65">
         <v>42812</v>
@@ -6575,14 +6561,14 @@
         <v>42814</v>
       </c>
       <c r="G19" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="66" t="s">
         <v>212</v>
-      </c>
-      <c r="H19" s="66" t="s">
-        <v>213</v>
       </c>
       <c r="I19" s="62"/>
       <c r="J19" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L19" s="65">
         <v>42833</v>
@@ -6608,10 +6594,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D20" s="65">
         <v>42812</v>
@@ -6623,14 +6609,14 @@
         <v>42814</v>
       </c>
       <c r="G20" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="66" t="s">
         <v>215</v>
-      </c>
-      <c r="H20" s="66" t="s">
-        <v>216</v>
       </c>
       <c r="I20" s="62"/>
       <c r="J20" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L20" s="65">
         <v>42833</v>
@@ -6656,10 +6642,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D21" s="65">
         <v>42812</v>
@@ -6674,11 +6660,11 @@
         <v>31</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I21" s="62"/>
       <c r="J21" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L21" s="65">
         <v>42833</v>
@@ -6722,11 +6708,11 @@
         <v>23</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I22" s="62"/>
       <c r="J22" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
@@ -6745,10 +6731,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D23" s="65">
         <v>42815</v>
@@ -6760,14 +6746,14 @@
         <v>42818</v>
       </c>
       <c r="G23" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="66" t="s">
         <v>218</v>
-      </c>
-      <c r="H23" s="66" t="s">
-        <v>219</v>
       </c>
       <c r="I23" s="62"/>
       <c r="J23" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L23" s="65">
         <v>42842</v>
@@ -6809,11 +6795,11 @@
         <v>151</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="62"/>
       <c r="J24" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L24" s="65">
         <v>42842</v>
@@ -6852,14 +6838,14 @@
         <v>42818</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I25" s="62"/>
       <c r="J25" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M25" s="62" t="s">
         <v>82</v>
@@ -6898,7 +6884,7 @@
         <v>35</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="62" t="s">
@@ -6940,10 +6926,10 @@
         <v>42818</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H27" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I27" s="68" t="s">
         <v>73</v>
@@ -6964,10 +6950,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D28" s="65">
         <v>42815</v>
@@ -6979,14 +6965,14 @@
         <v>42818</v>
       </c>
       <c r="G28" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="H28" s="66" t="s">
         <v>220</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>221</v>
       </c>
       <c r="I28" s="62"/>
       <c r="J28" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L28" s="65">
         <v>42833</v>
@@ -7010,7 +6996,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>34</v>
@@ -7028,11 +7014,11 @@
         <v>33</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I29" s="62"/>
       <c r="J29" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L29" s="65">
         <v>42822</v>
@@ -7058,10 +7044,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D30" s="65">
         <v>42815</v>
@@ -7073,14 +7059,14 @@
         <v>42818</v>
       </c>
       <c r="G30" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="66" t="s">
         <v>224</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>225</v>
       </c>
       <c r="I30" s="62"/>
       <c r="J30" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L30" s="65">
         <v>42833</v>
@@ -7104,10 +7090,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D31" s="65">
         <v>42815</v>
@@ -7119,14 +7105,14 @@
         <v>42818</v>
       </c>
       <c r="G31" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="66" t="s">
         <v>226</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>227</v>
       </c>
       <c r="I31" s="62"/>
       <c r="J31" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L31" s="65">
         <v>42833</v>
@@ -7199,10 +7185,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D33" s="65">
         <v>42819</v>
@@ -7214,14 +7200,14 @@
         <v>42820</v>
       </c>
       <c r="G33" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" s="66" t="s">
         <v>228</v>
-      </c>
-      <c r="H33" s="66" t="s">
-        <v>229</v>
       </c>
       <c r="I33" s="62"/>
       <c r="J33" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L33" s="65">
         <v>42833</v>
@@ -7247,10 +7233,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D34" s="65">
         <v>42820</v>
@@ -7262,14 +7248,14 @@
         <v>42821</v>
       </c>
       <c r="G34" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="66" t="s">
         <v>230</v>
-      </c>
-      <c r="H34" s="66" t="s">
-        <v>231</v>
       </c>
       <c r="I34" s="62"/>
       <c r="J34" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L34" s="65">
         <v>42833</v>
@@ -7295,10 +7281,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D35" s="65">
         <v>42820</v>
@@ -7310,14 +7296,14 @@
         <v>42821</v>
       </c>
       <c r="G35" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="66" t="s">
         <v>232</v>
-      </c>
-      <c r="H35" s="66" t="s">
-        <v>233</v>
       </c>
       <c r="I35" s="62"/>
       <c r="J35" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L35" s="65">
         <v>42833</v>
@@ -7343,10 +7329,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D36" s="65">
         <v>42820</v>
@@ -7358,14 +7344,14 @@
         <v>42821</v>
       </c>
       <c r="G36" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" s="66" t="s">
         <v>234</v>
-      </c>
-      <c r="H36" s="66" t="s">
-        <v>235</v>
       </c>
       <c r="I36" s="62"/>
       <c r="J36" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L36" s="65">
         <v>42833</v>
@@ -7409,11 +7395,11 @@
         <v>53</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I37" s="62"/>
       <c r="J37" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L37" s="65">
         <v>42833</v>
@@ -7499,16 +7485,16 @@
         <v>42821</v>
       </c>
       <c r="G39" s="63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H39" s="72" t="s">
         <v>54</v>
       </c>
       <c r="I39" s="62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J39" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L39" s="65">
         <v>42833</v>
@@ -7532,7 +7518,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C40" s="62" t="s">
         <v>52</v>
@@ -7547,28 +7533,26 @@
         <v>42821</v>
       </c>
       <c r="G40" s="73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H40" s="74" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I40" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="J40" s="62" t="s">
-        <v>320</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="J40" s="62"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
       <c r="M40" s="62" t="s">
-        <v>86</v>
+        <v>369</v>
       </c>
       <c r="N40" s="62"/>
       <c r="O40" s="62" t="s">
-        <v>174</v>
+        <v>370</v>
       </c>
       <c r="P40" s="63">
-        <v>42841</v>
+        <v>42851</v>
       </c>
       <c r="Q40" s="62" t="s">
         <v>98</v>
@@ -7594,16 +7578,16 @@
         <v>42821</v>
       </c>
       <c r="G41" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="H41" s="72" t="s">
+      <c r="I41" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="I41" s="62" t="s">
-        <v>241</v>
-      </c>
       <c r="J41" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L41" s="65">
         <v>42842</v>
@@ -7642,16 +7626,16 @@
         <v>42821</v>
       </c>
       <c r="G42" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="H42" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="H42" s="72" t="s">
+      <c r="I42" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="I42" s="62" t="s">
-        <v>244</v>
-      </c>
       <c r="J42" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L42" s="65">
         <v>42842</v>
@@ -7693,7 +7677,7 @@
         <v>59</v>
       </c>
       <c r="H43" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I43" s="62" t="s">
         <v>51</v>
@@ -7739,16 +7723,16 @@
         <v>42821</v>
       </c>
       <c r="G44" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="H44" s="72" t="s">
+      <c r="I44" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="I44" s="62" t="s">
-        <v>247</v>
-      </c>
       <c r="J44" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L44" s="65">
         <v>42842</v>
@@ -7758,7 +7742,7 @@
       </c>
       <c r="N44" s="62"/>
       <c r="O44" s="67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P44" s="63">
         <v>42841</v>
@@ -7787,16 +7771,16 @@
         <v>42821</v>
       </c>
       <c r="G45" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="H45" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="H45" s="72" t="s">
+      <c r="I45" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="I45" s="62" t="s">
-        <v>250</v>
-      </c>
       <c r="J45" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L45" s="65">
         <v>42833</v>
@@ -7840,13 +7824,13 @@
         <v>58</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I46" s="62" t="s">
         <v>56</v>
       </c>
       <c r="J46" s="62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K46" s="55"/>
       <c r="L46" s="55"/>
@@ -7891,7 +7875,7 @@
         <v>56</v>
       </c>
       <c r="J47" s="62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K47" s="55"/>
       <c r="L47" s="55"/>
@@ -7927,14 +7911,14 @@
         <v>42825</v>
       </c>
       <c r="G48" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="H48" s="72" t="s">
         <v>251</v>
-      </c>
-      <c r="H48" s="72" t="s">
-        <v>252</v>
       </c>
       <c r="I48" s="62"/>
       <c r="J48" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L48" s="65">
         <v>42833</v>
@@ -7975,14 +7959,14 @@
         <v>42825</v>
       </c>
       <c r="G49" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="H49" s="72" t="s">
         <v>253</v>
-      </c>
-      <c r="H49" s="72" t="s">
-        <v>254</v>
       </c>
       <c r="I49" s="62"/>
       <c r="J49" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L49" s="65">
         <v>42833</v>
@@ -8023,14 +8007,14 @@
         <v>42825</v>
       </c>
       <c r="G50" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="H50" s="72" t="s">
         <v>255</v>
-      </c>
-      <c r="H50" s="72" t="s">
-        <v>256</v>
       </c>
       <c r="I50" s="62"/>
       <c r="J50" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L50" s="65">
         <v>42842</v>
@@ -8067,16 +8051,16 @@
         <v>42825</v>
       </c>
       <c r="G51" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="H51" s="72" t="s">
-        <v>258</v>
-      </c>
       <c r="I51" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J51" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L51" s="65">
         <v>42833</v>
@@ -8117,14 +8101,14 @@
         <v>42825</v>
       </c>
       <c r="G52" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H52" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I52" s="62"/>
       <c r="J52" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L52" s="65">
         <v>42833</v>
@@ -8165,14 +8149,14 @@
         <v>42825</v>
       </c>
       <c r="G53" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="H53" s="66" t="s">
         <v>260</v>
-      </c>
-      <c r="H53" s="66" t="s">
-        <v>261</v>
       </c>
       <c r="I53" s="62"/>
       <c r="J53" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L53" s="65">
         <v>42833</v>
@@ -8213,14 +8197,14 @@
         <v>42825</v>
       </c>
       <c r="G54" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" s="66" t="s">
         <v>262</v>
-      </c>
-      <c r="H54" s="66" t="s">
-        <v>263</v>
       </c>
       <c r="I54" s="62"/>
       <c r="J54" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L54" s="65">
         <v>42833</v>
@@ -8294,14 +8278,14 @@
         <v>42825</v>
       </c>
       <c r="G56" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="H56" s="66" t="s">
         <v>264</v>
-      </c>
-      <c r="H56" s="66" t="s">
-        <v>265</v>
       </c>
       <c r="I56" s="62"/>
       <c r="J56" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L56" s="65">
         <v>42833</v>
@@ -8340,14 +8324,14 @@
         <v>42825</v>
       </c>
       <c r="G57" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="H57" s="66" t="s">
         <v>266</v>
-      </c>
-      <c r="H57" s="66" t="s">
-        <v>267</v>
       </c>
       <c r="I57" s="62"/>
       <c r="J57" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L57" s="65">
         <v>42833</v>
@@ -8386,14 +8370,14 @@
         <v>42825</v>
       </c>
       <c r="G58" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H58" s="66" t="s">
         <v>268</v>
-      </c>
-      <c r="H58" s="66" t="s">
-        <v>269</v>
       </c>
       <c r="I58" s="62"/>
       <c r="J58" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L58" s="65">
         <v>42842</v>
@@ -8432,14 +8416,14 @@
         <v>42825</v>
       </c>
       <c r="G59" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H59" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I59" s="62"/>
       <c r="J59" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L59" s="65">
         <v>42833</v>
@@ -8481,7 +8465,7 @@
         <v>72</v>
       </c>
       <c r="H60" s="75" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I60" s="62"/>
       <c r="J60" s="62"/>
@@ -8552,16 +8536,16 @@
         <v>42825</v>
       </c>
       <c r="G62" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="H62" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="H62" s="66" t="s">
+      <c r="I62" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="I62" s="62" t="s">
-        <v>273</v>
-      </c>
       <c r="J62" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L62" s="65">
         <v>42833</v>
@@ -8602,16 +8586,16 @@
         <v>42825</v>
       </c>
       <c r="G63" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="H63" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="H63" s="66" t="s">
-        <v>275</v>
-      </c>
       <c r="I63" s="62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J63" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L63" s="65">
         <v>42833</v>
@@ -8652,16 +8636,16 @@
         <v>42825</v>
       </c>
       <c r="G64" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="H64" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="H64" s="66" t="s">
-        <v>277</v>
-      </c>
       <c r="I64" s="62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J64" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L64" s="65">
         <v>42833</v>
@@ -8687,10 +8671,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C65" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D65" s="65">
         <v>42833</v>
@@ -8702,14 +8686,14 @@
         <v>42836</v>
       </c>
       <c r="G65" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="H65" s="66" t="s">
         <v>278</v>
-      </c>
-      <c r="H65" s="66" t="s">
-        <v>279</v>
       </c>
       <c r="I65" s="62"/>
       <c r="J65" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L65" s="65">
         <v>42842</v>
@@ -8729,10 +8713,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D66" s="65">
         <v>42833</v>
@@ -8744,14 +8728,14 @@
         <v>42837</v>
       </c>
       <c r="G66" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="H66" s="66" t="s">
         <v>280</v>
-      </c>
-      <c r="H66" s="66" t="s">
-        <v>281</v>
       </c>
       <c r="I66" s="62"/>
       <c r="J66" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L66" s="65">
         <v>42842</v>
@@ -8775,10 +8759,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D67" s="65">
         <v>42833</v>
@@ -8790,13 +8774,13 @@
         <v>42837</v>
       </c>
       <c r="G67" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="H67" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="H67" s="66" t="s">
-        <v>283</v>
-      </c>
       <c r="J67" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L67" s="65">
         <v>42842</v>
@@ -8838,7 +8822,7 @@
         <v>137</v>
       </c>
       <c r="H68" s="66" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J68" s="62" t="s">
         <v>136</v>
@@ -8879,10 +8863,10 @@
         <v>139</v>
       </c>
       <c r="I69" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J69" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M69" s="62"/>
       <c r="Q69" s="40" t="s">
@@ -8912,10 +8896,10 @@
         <v>140</v>
       </c>
       <c r="H70" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J70" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L70" s="65">
         <v>42842</v>
@@ -8939,10 +8923,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C71" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="D71" s="65">
         <v>42833</v>
@@ -8954,16 +8938,16 @@
         <v>42837</v>
       </c>
       <c r="G71" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="H71" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="H71" s="66" t="s">
-        <v>285</v>
-      </c>
       <c r="I71" s="62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J71" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L71" s="65">
         <v>42842</v>
@@ -9048,13 +9032,13 @@
         <v>143</v>
       </c>
       <c r="H73" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I73" s="62" t="s">
         <v>73</v>
       </c>
       <c r="J73" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L73" s="65">
         <v>42842</v>
@@ -9098,7 +9082,7 @@
         <v>73</v>
       </c>
       <c r="J74" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L74" s="65">
         <v>42842</v>
@@ -9139,7 +9123,7 @@
         <v>156</v>
       </c>
       <c r="J75" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L75" s="65">
         <v>42842</v>
@@ -9179,10 +9163,10 @@
         <v>148</v>
       </c>
       <c r="H76" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J76" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L76" s="65">
         <v>42842</v>
@@ -9222,10 +9206,10 @@
         <v>149</v>
       </c>
       <c r="H77" s="72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J77" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L77" s="65">
         <v>42842</v>
@@ -9264,10 +9248,10 @@
         <v>42837</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O78" s="40" t="s">
         <v>171</v>
@@ -9299,10 +9283,10 @@
         <v>150</v>
       </c>
       <c r="H79" s="66" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I79" s="62" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J79" s="62"/>
       <c r="K79" s="55"/>
@@ -9340,7 +9324,7 @@
       </c>
       <c r="I80" s="62"/>
       <c r="J80" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L80" s="65">
         <v>42842</v>
@@ -9386,7 +9370,7 @@
       </c>
       <c r="I81" s="62"/>
       <c r="J81" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L81" s="65">
         <v>42842</v>
@@ -9432,7 +9416,7 @@
       </c>
       <c r="I82" s="62"/>
       <c r="J82" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L82" s="65">
         <v>42842</v>
@@ -9472,10 +9456,10 @@
         <v>58</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I83" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J83" s="62"/>
       <c r="M83" s="62"/>
@@ -9504,13 +9488,13 @@
         <v>42839</v>
       </c>
       <c r="G84" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I84" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q84" s="40" t="s">
         <v>98</v>
@@ -9536,10 +9520,10 @@
         <v>42843</v>
       </c>
       <c r="G85" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H85" s="41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q85" s="62" t="s">
         <v>84</v>
@@ -9565,16 +9549,16 @@
         <v>42843</v>
       </c>
       <c r="G86" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="H86" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="I86" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="H86" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="I86" s="62" t="s">
-        <v>182</v>
-      </c>
       <c r="J86" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L86" s="83">
         <v>42847</v>
@@ -9583,7 +9567,7 @@
         <v>82</v>
       </c>
       <c r="O86" s="40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P86" s="78">
         <v>42846</v>
@@ -9615,20 +9599,20 @@
         <v>151</v>
       </c>
       <c r="H87" s="66" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I87" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L87" s="83"/>
       <c r="M87" s="62" t="s">
         <v>82</v>
       </c>
       <c r="O87" s="40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P87" s="78">
         <v>42846</v>
@@ -9660,19 +9644,19 @@
         <v>151</v>
       </c>
       <c r="H88" s="66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I88" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M88" s="62" t="s">
         <v>82</v>
       </c>
       <c r="O88" s="40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P88" s="78">
         <v>42846</v>
@@ -9704,19 +9688,19 @@
         <v>151</v>
       </c>
       <c r="H89" s="66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I89" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M89" s="62" t="s">
         <v>82</v>
       </c>
       <c r="O89" s="40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P89" s="78">
         <v>42846</v>
@@ -9748,19 +9732,19 @@
         <v>151</v>
       </c>
       <c r="H90" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I90" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J90" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M90" s="62" t="s">
         <v>82</v>
       </c>
       <c r="O90" s="40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P90" s="78">
         <v>42846</v>
@@ -9789,16 +9773,16 @@
         <v>42843</v>
       </c>
       <c r="G91" s="69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H91" s="82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I91" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M91" s="62" t="s">
         <v>82</v>
@@ -9830,16 +9814,16 @@
         <v>42843</v>
       </c>
       <c r="G92" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="H92" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="H92" s="41" t="s">
-        <v>199</v>
-      </c>
       <c r="I92" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L92" s="83">
         <v>42847</v>
@@ -9874,13 +9858,13 @@
         <v>42843</v>
       </c>
       <c r="G93" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I93" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q93" s="40" t="s">
         <v>98</v>
@@ -9906,16 +9890,16 @@
         <v>42843</v>
       </c>
       <c r="G94" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H94" s="66" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I94" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L94" s="83">
         <v>42847</v>
@@ -9941,17 +9925,17 @@
         <v>42843</v>
       </c>
       <c r="G95" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H95" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I95" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M95" s="62"/>
       <c r="O95" s="81" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="40.5">
@@ -9974,17 +9958,17 @@
         <v>42843</v>
       </c>
       <c r="G96" s="63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H96" s="66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I96" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M96" s="62"/>
       <c r="O96" s="81" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="67.5">
@@ -10007,28 +9991,28 @@
         <v>42843</v>
       </c>
       <c r="G97" s="63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H97" s="66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I97" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J97" s="40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M97" s="62" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O97" s="40" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P97" s="78">
         <v>42846</v>
       </c>
       <c r="Q97" s="40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="40.5">
@@ -10051,17 +10035,17 @@
         <v>42843</v>
       </c>
       <c r="G98" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H98" s="66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I98" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M98" s="62"/>
       <c r="O98" s="81" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -10084,13 +10068,13 @@
         <v>42843</v>
       </c>
       <c r="G99" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H99" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I99" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M99" s="62"/>
       <c r="Q99" s="62" t="s">
@@ -10117,13 +10101,13 @@
         <v>42843</v>
       </c>
       <c r="G100" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H100" s="64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I100" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M100" s="62"/>
     </row>
@@ -10147,16 +10131,16 @@
         <v>42843</v>
       </c>
       <c r="G101" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H101" s="66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I101" s="62" t="s">
         <v>73</v>
       </c>
       <c r="J101" s="55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L101" s="83">
         <v>42847</v>
@@ -10165,13 +10149,13 @@
         <v>82</v>
       </c>
       <c r="O101" s="84" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P101" s="63">
         <v>42846</v>
       </c>
       <c r="Q101" s="55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="27">
@@ -10194,17 +10178,17 @@
         <v>42843</v>
       </c>
       <c r="G102" s="63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H102" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="I102" s="62" t="s">
         <v>312</v>
-      </c>
-      <c r="I102" s="62" t="s">
-        <v>313</v>
       </c>
       <c r="M102" s="62"/>
       <c r="O102" s="81" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="55" customFormat="1" ht="27">
@@ -10227,17 +10211,17 @@
         <v>42843</v>
       </c>
       <c r="G103" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="H103" s="66" t="s">
         <v>288</v>
-      </c>
-      <c r="H103" s="66" t="s">
-        <v>289</v>
       </c>
       <c r="I103" s="62" t="s">
         <v>73</v>
       </c>
       <c r="M103" s="62"/>
       <c r="O103" s="55" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P103" s="63"/>
     </row>
@@ -10261,13 +10245,13 @@
         <v>42843</v>
       </c>
       <c r="G104" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I104" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M104" s="62"/>
     </row>
@@ -10276,7 +10260,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C105" s="62" t="s">
         <v>20</v>
@@ -10291,10 +10275,10 @@
         <v>42843</v>
       </c>
       <c r="G105" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="27">
@@ -10302,7 +10286,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C106" s="62" t="s">
         <v>20</v>
@@ -10317,10 +10301,10 @@
         <v>42843</v>
       </c>
       <c r="G106" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -10343,13 +10327,13 @@
         <v>42844</v>
       </c>
       <c r="G107" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="H107" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="H107" s="66" t="s">
+      <c r="I107" s="62" t="s">
         <v>293</v>
-      </c>
-      <c r="I107" s="62" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="27">
@@ -10372,10 +10356,10 @@
         <v>42845</v>
       </c>
       <c r="G108" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="H108" s="66" t="s">
         <v>297</v>
-      </c>
-      <c r="H108" s="66" t="s">
-        <v>298</v>
       </c>
       <c r="I108" s="62"/>
     </row>
@@ -10399,16 +10383,16 @@
         <v>42847</v>
       </c>
       <c r="G109" s="63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H109" s="66" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I109" s="62" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J109" s="55" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L109" s="65"/>
       <c r="M109" s="62"/>
@@ -10435,10 +10419,10 @@
         <v>42847</v>
       </c>
       <c r="G110" s="63" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H110" s="66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I110" s="62" t="s">
         <v>73</v>
@@ -10468,16 +10452,16 @@
         <v>42847</v>
       </c>
       <c r="G111" s="63" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H111" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="I111" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="I111" s="40" t="s">
-        <v>348</v>
-      </c>
       <c r="Q111" s="40" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="27">
@@ -10500,16 +10484,16 @@
         <v>42847</v>
       </c>
       <c r="G112" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="H112" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="H112" s="66" t="s">
+      <c r="I112" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q112" s="40" t="s">
         <v>347</v>
-      </c>
-      <c r="I112" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q112" s="40" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="40.5" hidden="1">
@@ -10532,16 +10516,16 @@
         <v>42847</v>
       </c>
       <c r="G113" s="63" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H113" s="66" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I113" s="40" t="s">
         <v>56</v>
       </c>
       <c r="J113" s="40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q113" s="40" t="s">
         <v>167</v>
@@ -10567,10 +10551,10 @@
         <v>42847</v>
       </c>
       <c r="G114" s="63" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H114" s="66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q114" s="40" t="s">
         <v>167</v>
@@ -10587,12 +10571,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:J113 J115:J1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J114">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",J114)))</formula>
     </cfRule>
   </conditionalFormatting>
